--- a/テスト項目/総合テスト.xlsx
+++ b/テスト項目/総合テスト.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>確認結果</t>
     <rPh sb="0" eb="2">
@@ -203,6 +203,103 @@
     <rPh sb="34" eb="36">
       <t>ツウチ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下記は実装部分においてのシナリオ</t>
+    <rPh sb="0" eb="2">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ブブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下記はシステム全体のシナリオ(QR版)</t>
+    <rPh sb="0" eb="2">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>バン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下記はシステム全体のシナリオ(IC版)</t>
+    <rPh sb="0" eb="2">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>バン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カゴのQRコードを顧客が読み取る</t>
+    <rPh sb="9" eb="11">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カゴのQRコードをゲートが読み取る→決済</t>
+    <rPh sb="13" eb="14">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ケッサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カゴのICタグをゲートが読み取る</t>
+    <rPh sb="12" eb="13">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カゴのICタグをゲートが読み取る→決済</t>
+    <rPh sb="17" eb="19">
+      <t>ケッサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シナリオ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シナリオ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -301,7 +398,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -332,11 +429,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -618,10 +721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G8"/>
+  <dimension ref="B1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -631,6 +734,11 @@
     <col min="6" max="7" width="7.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B2" s="5" t="s">
         <v>5</v>
@@ -652,7 +760,7 @@
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -666,7 +774,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B4" s="10"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="7"/>
       <c r="D4" s="3" t="s">
         <v>11</v>
@@ -676,7 +784,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B5" s="10"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="7"/>
       <c r="D5" s="1" t="s">
         <v>12</v>
@@ -686,7 +794,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B6" s="10"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="7"/>
       <c r="D6" s="1" t="s">
         <v>13</v>
@@ -696,7 +804,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B7" s="11"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="7"/>
       <c r="D7" s="1" t="s">
         <v>14</v>
@@ -719,9 +827,113 @@
       <c r="F8" s="4"/>
       <c r="G8" s="5"/>
     </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B13" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B14" s="11"/>
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B15" s="11"/>
+      <c r="C15" s="7"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B16" s="11"/>
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B17" s="12"/>
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B22" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B23" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B24" s="11"/>
+      <c r="C24" s="7"/>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B25" s="11"/>
+      <c r="C25" s="7"/>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B26" s="11"/>
+      <c r="C26" s="7"/>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B27" s="12"/>
+      <c r="C27" s="7"/>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B28" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="B3:B7"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="B23:B27"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/テスト項目/総合テスト.xlsx
+++ b/テスト項目/総合テスト.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14625"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14625"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
   <si>
     <t>確認結果</t>
     <rPh sb="0" eb="2">
@@ -301,6 +302,153 @@
   <si>
     <t>シナリオ</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品をカゴに入れ、超音波センサ反応時画像を撮りLEDを点灯させる。</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>チョウオンパ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ハンノウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>テントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品のバーコード情報を確認する。</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品を商品DBに追加・削除する。</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品を正常に商品DBに追加できたかどうか結果をLED点灯にて通知する。</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>テントウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ツウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>1-3</t>
+  </si>
+  <si>
+    <t>1-4</t>
+  </si>
+  <si>
+    <t>1-5</t>
+  </si>
+  <si>
+    <t>重量センサより商品追加・削除の情報をサーバへ送る。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バイナリーデータを画像にフラグに変換する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Yoloを使用して画像の中のバーコードのみを切り取る。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バーコード番号を解析する。</t>
+    <rPh sb="5" eb="7">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カイセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カートを選択する。</t>
+    <rPh sb="4" eb="6">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>決済</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-6</t>
+  </si>
+  <si>
+    <t>1-7</t>
+  </si>
+  <si>
+    <t>1-8</t>
+  </si>
+  <si>
+    <t>2-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-2</t>
   </si>
 </sst>
 </file>
@@ -332,7 +480,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -392,13 +540,79 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -430,6 +644,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -438,8 +655,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -721,10 +968,198 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="57.5" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="69.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="7.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="20"/>
+      <c r="E2" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B4" s="12"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B5" s="12"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B6" s="12"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B7" s="12"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B8" s="12"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B9" s="12"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B10" s="13"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B11" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B12" s="13"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C13" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:B10"/>
+    <mergeCell ref="B11:B12"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B7"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -760,7 +1195,7 @@
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -774,7 +1209,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B4" s="11"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="7"/>
       <c r="D4" s="3" t="s">
         <v>11</v>
@@ -784,7 +1219,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B5" s="11"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="7"/>
       <c r="D5" s="1" t="s">
         <v>12</v>
@@ -794,7 +1229,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B6" s="11"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="7"/>
       <c r="D6" s="1" t="s">
         <v>13</v>
@@ -804,7 +1239,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B7" s="12"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="7"/>
       <c r="D7" s="1" t="s">
         <v>14</v>
@@ -842,12 +1277,12 @@
       <c r="B12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -855,19 +1290,19 @@
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B14" s="11"/>
+      <c r="B14" s="12"/>
       <c r="C14" s="7"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B15" s="11"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="7"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B16" s="11"/>
+      <c r="B16" s="12"/>
       <c r="C16" s="7"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B17" s="12"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="7"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.4">
@@ -893,12 +1328,12 @@
       <c r="B22" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C23" s="6" t="s">
@@ -906,19 +1341,19 @@
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B24" s="11"/>
+      <c r="B24" s="12"/>
       <c r="C24" s="7"/>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B25" s="11"/>
+      <c r="B25" s="12"/>
       <c r="C25" s="7"/>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B26" s="11"/>
+      <c r="B26" s="12"/>
       <c r="C26" s="7"/>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B27" s="12"/>
+      <c r="B27" s="13"/>
       <c r="C27" s="7"/>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.4">

--- a/テスト項目/総合テスト.xlsx
+++ b/テスト項目/総合テスト.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\B4_2019\Documents\GitHub\YoloBarcodeReader\テスト項目\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\YoloBarcodeReader\テスト項目\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14625"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14625"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -646,6 +646,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -654,39 +687,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -971,12 +971,12 @@
   <dimension ref="B2:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="57.5" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="3.5" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="4.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="69.875" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="7.125" bestFit="1" customWidth="1"/>
@@ -986,11 +986,11 @@
       <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="15" t="s">
+      <c r="D2" s="17"/>
+      <c r="E2" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="5" t="s">
@@ -1004,16 +1004,16 @@
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="15" t="s">
         <v>25</v>
       </c>
       <c r="F3" s="5"/>
@@ -1021,12 +1021,12 @@
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B4" s="12"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="21" t="s">
+      <c r="B4" s="23"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="15" t="s">
         <v>34</v>
       </c>
       <c r="F4" s="5"/>
@@ -1034,12 +1034,12 @@
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B5" s="12"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="21" t="s">
+      <c r="B5" s="23"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="15" t="s">
         <v>35</v>
       </c>
       <c r="F5" s="5"/>
@@ -1047,12 +1047,12 @@
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B6" s="12"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="21" t="s">
+      <c r="B6" s="23"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="15" t="s">
         <v>36</v>
       </c>
       <c r="F6" s="5"/>
@@ -1060,12 +1060,12 @@
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B7" s="12"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="21" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="15" t="s">
         <v>37</v>
       </c>
       <c r="F7" s="5"/>
@@ -1073,12 +1073,12 @@
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="12"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="21" t="s">
+      <c r="B8" s="23"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="16" t="s">
         <v>26</v>
       </c>
       <c r="F8" s="5"/>
@@ -1086,12 +1086,12 @@
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="12"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="21" t="s">
+      <c r="B9" s="23"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="16" t="s">
         <v>27</v>
       </c>
       <c r="F9" s="5"/>
@@ -1099,12 +1099,12 @@
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B10" s="13"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="21" t="s">
+      <c r="B10" s="24"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F10" s="5"/>
@@ -1112,16 +1112,16 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="22" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F11" s="5"/>
@@ -1129,12 +1129,12 @@
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B12" s="13"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="22" t="s">
+      <c r="B12" s="24"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="16" t="s">
         <v>8</v>
       </c>
       <c r="F12" s="5"/>
@@ -1142,7 +1142,7 @@
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="C13" s="24"/>
+      <c r="C13" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1195,7 +1195,7 @@
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="22" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -1209,7 +1209,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B4" s="12"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="7"/>
       <c r="D4" s="3" t="s">
         <v>11</v>
@@ -1219,7 +1219,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B5" s="12"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="7"/>
       <c r="D5" s="1" t="s">
         <v>12</v>
@@ -1229,7 +1229,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B6" s="12"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="7"/>
       <c r="D6" s="1" t="s">
         <v>13</v>
@@ -1239,7 +1239,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B7" s="13"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="7"/>
       <c r="D7" s="1" t="s">
         <v>14</v>
@@ -1282,7 +1282,7 @@
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="22" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -1290,19 +1290,19 @@
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B14" s="12"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="7"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B15" s="12"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="7"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B16" s="12"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="7"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B17" s="13"/>
+      <c r="B17" s="24"/>
       <c r="C17" s="7"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.4">
@@ -1333,7 +1333,7 @@
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="22" t="s">
         <v>3</v>
       </c>
       <c r="C23" s="6" t="s">
@@ -1341,19 +1341,19 @@
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B24" s="12"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="7"/>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B25" s="12"/>
+      <c r="B25" s="23"/>
       <c r="C25" s="7"/>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B26" s="12"/>
+      <c r="B26" s="23"/>
       <c r="C26" s="7"/>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B27" s="13"/>
+      <c r="B27" s="24"/>
       <c r="C27" s="7"/>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.4">

--- a/テスト項目/総合テスト.xlsx
+++ b/テスト項目/総合テスト.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\YoloBarcodeReader\テスト項目\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\B4_2019\Documents\GitHub\YoloBarcodeReader\テスト項目\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -971,7 +971,7 @@
   <dimension ref="B2:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -979,7 +979,8 @@
     <col min="3" max="3" width="3.5" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="4.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="69.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.4">
@@ -1016,8 +1017,10 @@
       <c r="E3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="2"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="4">
+        <v>43837</v>
+      </c>
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.4">
@@ -1029,8 +1032,10 @@
       <c r="E4" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="2"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="4">
+        <v>43837</v>
+      </c>
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.4">
@@ -1042,8 +1047,10 @@
       <c r="E5" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="2"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="4">
+        <v>43837</v>
+      </c>
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.4">
@@ -1055,8 +1062,10 @@
       <c r="E6" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="2"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="4">
+        <v>43837</v>
+      </c>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.4">
@@ -1068,8 +1077,10 @@
       <c r="E7" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="2"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="4">
+        <v>43837</v>
+      </c>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.4">
@@ -1081,8 +1092,10 @@
       <c r="E8" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="2"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="4">
+        <v>43837</v>
+      </c>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.4">
@@ -1094,8 +1107,10 @@
       <c r="E9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="2"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="4">
+        <v>43837</v>
+      </c>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.4">
@@ -1107,8 +1122,10 @@
       <c r="E10" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="2"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="4">
+        <v>43837</v>
+      </c>
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.4">
@@ -1124,8 +1141,10 @@
       <c r="E11" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="2"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="4">
+        <v>43837</v>
+      </c>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.4">
@@ -1137,8 +1156,10 @@
       <c r="E12" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="4"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="4">
+        <v>43837</v>
+      </c>
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.4">

--- a/テスト項目/総合テスト.xlsx
+++ b/テスト項目/総合テスト.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14625"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14625"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="47">
   <si>
     <t>確認結果</t>
     <rPh sb="0" eb="2">
@@ -406,10 +406,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>バイナリーデータを画像にフラグに変換する。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Yoloを使用して画像の中のバーコードのみを切り取る。</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -449,6 +445,18 @@
   </si>
   <si>
     <t>2-2</t>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>△</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バイナリーデータを画像とフラグに変換する。</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -971,7 +979,7 @@
   <dimension ref="B2:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G12" sqref="B2:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1017,7 +1025,9 @@
       <c r="E3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="G3" s="4">
         <v>43837</v>
       </c>
@@ -1032,7 +1042,9 @@
       <c r="E4" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="G4" s="4">
         <v>43837</v>
       </c>
@@ -1045,9 +1057,11 @@
         <v>31</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="G5" s="4">
         <v>43837</v>
       </c>
@@ -1060,9 +1074,11 @@
         <v>32</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="G6" s="4">
         <v>43837</v>
       </c>
@@ -1075,9 +1091,11 @@
         <v>33</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="G7" s="4">
         <v>43837</v>
       </c>
@@ -1087,12 +1105,14 @@
       <c r="B8" s="23"/>
       <c r="C8" s="14"/>
       <c r="D8" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="G8" s="4">
         <v>43837</v>
       </c>
@@ -1102,12 +1122,14 @@
       <c r="B9" s="23"/>
       <c r="C9" s="14"/>
       <c r="D9" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="G9" s="4">
         <v>43837</v>
       </c>
@@ -1117,12 +1139,14 @@
       <c r="B10" s="24"/>
       <c r="C10" s="14"/>
       <c r="D10" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="G10" s="4">
         <v>43837</v>
       </c>
@@ -1133,15 +1157,17 @@
         <v>4</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="G11" s="4">
         <v>43837</v>
       </c>
@@ -1151,12 +1177,14 @@
       <c r="B12" s="24"/>
       <c r="C12" s="20"/>
       <c r="D12" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="F12" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="G12" s="4">
         <v>43837</v>
       </c>

--- a/テスト項目/総合テスト.xlsx
+++ b/テスト項目/総合テスト.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\B4_2019\Documents\GitHub\YoloBarcodeReader\テスト項目\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\YoloBarcodeReader\テスト項目\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14625"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14625"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="49">
   <si>
     <t>確認結果</t>
     <rPh sb="0" eb="2">
@@ -456,6 +456,20 @@
   </si>
   <si>
     <t>バイナリーデータを画像とフラグに変換する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シナリオ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>買い物</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モノ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -620,7 +634,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -695,6 +709,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -979,7 +1002,7 @@
   <dimension ref="B2:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="B2:G12"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1205,25 +1228,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G28"/>
+  <dimension ref="B1:H28"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="57.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="124.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.25" customWidth="1"/>
+    <col min="5" max="5" width="77.5" customWidth="1"/>
+    <col min="7" max="8" width="7.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
@@ -1231,187 +1255,215 @@
         <v>6</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B3" s="22" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="F3" s="5"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B4" s="23"/>
       <c r="C4" s="7"/>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="7"/>
+      <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="F4" s="5"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B5" s="23"/>
       <c r="C5" s="7"/>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="7"/>
+      <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="F5" s="5"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B6" s="23"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="7"/>
+      <c r="E6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="F6" s="5"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B7" s="24"/>
       <c r="C7" s="7"/>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="7"/>
+      <c r="E7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="F7" s="5"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B8" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="8"/>
+      <c r="E8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="F8" s="5"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="2:8" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="2:8" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D11" s="25"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B12" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D12" s="26"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B13" s="22" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D13" s="27"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B14" s="23"/>
       <c r="C14" s="7"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D14" s="27"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B15" s="23"/>
       <c r="C15" s="7"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D15" s="27"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B16" s="23"/>
       <c r="C16" s="7"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="D16" s="27"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B17" s="24"/>
       <c r="C17" s="7"/>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="D17" s="27"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B18" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="D18" s="27"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B21" s="5"/>
       <c r="C21" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="D21" s="25"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B22" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="D22" s="26"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B23" s="22" t="s">
         <v>3</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="D23" s="27"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B24" s="23"/>
       <c r="C24" s="7"/>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="D24" s="27"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B25" s="23"/>
       <c r="C25" s="7"/>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="D25" s="27"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B26" s="23"/>
       <c r="C26" s="7"/>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="D26" s="27"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B27" s="24"/>
       <c r="C27" s="7"/>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="D27" s="27"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B28" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>22</v>
       </c>
+      <c r="D28" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="3">
